--- a/OfferCruzMailBot/plantillas/area.xlsx
+++ b/OfferCruzMailBot/plantillas/area.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\UAGRM\Tecnologia web\1er Proyecto (Mail)\OfferCruzMailBot\plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>area</t>
   </si>
@@ -25,31 +30,39 @@
     <t>(nuevo)</t>
   </si>
   <si>
-    <t>Insertar o Actualizar área</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Año Inicial</t>
-  </si>
-  <si>
-    <t>Año Final</t>
-  </si>
-  <si>
-    <t>Zona UTM</t>
-  </si>
-  <si>
-    <t>Banda UTM</t>
-  </si>
-  <si>
-    <t>Polígono</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Permisos</t>
+  </si>
+  <si>
+    <t>Insertar o Actualizar permiso</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nota.- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No repetir los permisos.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -95,14 +108,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -163,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -172,16 +184,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,12 +201,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,246 +495,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>11</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>19</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>20</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>1</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>3</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>1990</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"C,D,E,F,G,H,I,J,K,L,M,N"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C32">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10 B11:B16">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>